--- a/qrcode/2019jan/jan.xlsx
+++ b/qrcode/2019jan/jan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB1277-F21F-4F04-B66B-4CC59A6C268E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D657455-2651-4C64-96BC-9DD8CCFFA70F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -546,6 +546,20 @@
       <t>第三季</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定的梦幻岛</t>
+  </si>
+  <si>
+    <t>201901102355</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lain.bgm.tv/pic/cover/l/ff/49/243916_1Ifa1.jpg</t>
   </si>
 </sst>
 </file>
@@ -930,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1608,10 +1622,27 @@
         <v>124</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{82D16A2F-CFDC-469E-BE04-E65A05DEBBA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D40" xr:uid="{82D16A2F-CFDC-469E-BE04-E65A05DEBBA4}">
       <formula1>"BILIBILI,IQIYI,ACFUN,BAIDUYUN,YOUKU,PPTV,TENCENT"</formula1>
     </dataValidation>
   </dataValidations>
